--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wietse Delclef\Dropbox\ERIK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E954A8A8-54BE-48AE-BCDD-5B9932630258}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98CD028-0E22-4859-8118-78DDAAAB160B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E34AB7DE-DCD3-4B98-9787-0BD2DA04F8F8}"/>
   </bookViews>
@@ -779,7 +779,7 @@
   <dimension ref="A1:R90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,7 @@
         <v>69</v>
       </c>
       <c r="H6" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>70</v>
       </c>
       <c r="H7" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
@@ -983,7 +983,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" s="1">
         <v>3</v>
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="1">
         <v>4</v>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1">
         <v>6</v>
@@ -1103,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="1">
         <v>7</v>
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="H14" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" s="1">
         <v>8</v>
@@ -1157,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K15" s="1">
         <v>9</v>
@@ -1184,7 +1184,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -1215,7 +1215,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1">
         <v>11</v>
@@ -1245,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1">
         <v>12</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19" s="1">
         <v>13</v>
@@ -1308,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="H20" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="1">
         <v>14</v>
@@ -1338,7 +1338,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" s="1">
         <v>15</v>
@@ -1365,7 +1365,7 @@
         <v>30</v>
       </c>
       <c r="H22" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" s="1">
         <v>16</v>
@@ -1392,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="H23" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K23" s="1">
         <v>17</v>
@@ -1419,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" s="1">
         <v>18</v>
@@ -1446,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="H25" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" s="1">
         <v>19</v>
@@ -1473,7 +1473,7 @@
         <v>34</v>
       </c>
       <c r="H26" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" s="1">
         <v>20</v>
@@ -1500,7 +1500,7 @@
         <v>35</v>
       </c>
       <c r="H27" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" s="1">
         <v>21</v>
@@ -1527,7 +1527,7 @@
         <v>36</v>
       </c>
       <c r="H28" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28" s="1">
         <v>22</v>
@@ -1554,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="H29" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" s="1">
         <v>23</v>
@@ -1581,7 +1581,7 @@
         <v>38</v>
       </c>
       <c r="H30" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" s="1">
         <v>24</v>
@@ -1608,7 +1608,7 @@
         <v>39</v>
       </c>
       <c r="H31" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" s="1">
         <v>25</v>
@@ -1635,7 +1635,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32" s="1">
         <v>26</v>
@@ -1662,7 +1662,7 @@
         <v>41</v>
       </c>
       <c r="H33" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33" s="1">
         <v>27</v>
@@ -1689,7 +1689,7 @@
         <v>42</v>
       </c>
       <c r="H34" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34" s="1">
         <v>28</v>
@@ -1716,7 +1716,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35" s="1">
         <v>29</v>
@@ -1743,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="H36" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36" s="1">
         <v>30</v>
@@ -1770,7 +1770,7 @@
         <v>45</v>
       </c>
       <c r="H37" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K37" s="1">
         <v>31</v>
@@ -1797,7 +1797,7 @@
         <v>46</v>
       </c>
       <c r="H38" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K38" s="1">
         <v>32</v>
@@ -1824,7 +1824,7 @@
         <v>47</v>
       </c>
       <c r="H39" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K39" s="1">
         <v>33</v>
@@ -1851,7 +1851,7 @@
         <v>48</v>
       </c>
       <c r="H40" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K40" s="1">
         <v>34</v>
@@ -1878,7 +1878,7 @@
         <v>49</v>
       </c>
       <c r="H41" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K41" s="1">
         <v>35</v>
@@ -1905,7 +1905,7 @@
         <v>50</v>
       </c>
       <c r="H42" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K42" s="1">
         <v>36</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
       <c r="H43" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K43" s="1">
         <v>37</v>
@@ -1959,7 +1959,7 @@
         <v>52</v>
       </c>
       <c r="H44" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K44" s="1">
         <v>38</v>
@@ -1986,7 +1986,7 @@
         <v>53</v>
       </c>
       <c r="H45" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K45" s="1">
         <v>39</v>
@@ -2013,7 +2013,7 @@
         <v>54</v>
       </c>
       <c r="H46" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K46" s="1">
         <v>40</v>
@@ -2040,7 +2040,7 @@
         <v>55</v>
       </c>
       <c r="H47" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K47" s="1">
         <v>41</v>
@@ -2067,7 +2067,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K48" s="1">
         <v>42</v>
@@ -2094,7 +2094,7 @@
         <v>57</v>
       </c>
       <c r="H49" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K49" s="1">
         <v>43</v>
@@ -2121,7 +2121,7 @@
         <v>58</v>
       </c>
       <c r="H50" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K50" s="1">
         <v>44</v>
@@ -2148,7 +2148,7 @@
         <v>59</v>
       </c>
       <c r="H51" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K51" s="1">
         <v>45</v>
@@ -2175,7 +2175,7 @@
         <v>60</v>
       </c>
       <c r="H52" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K52" s="1">
         <v>46</v>
@@ -2202,7 +2202,7 @@
         <v>61</v>
       </c>
       <c r="H53" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K53" s="1">
         <v>47</v>
@@ -2229,7 +2229,7 @@
         <v>62</v>
       </c>
       <c r="H54" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54" s="1">
         <v>48</v>
@@ -2256,7 +2256,7 @@
         <v>63</v>
       </c>
       <c r="H55" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K55" s="1">
         <v>49</v>
@@ -2283,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="H56" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56" s="1">
         <v>50</v>
@@ -2310,7 +2310,7 @@
         <v>65</v>
       </c>
       <c r="H57" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K57" s="1">
         <v>51</v>
@@ -2337,7 +2337,7 @@
         <v>66</v>
       </c>
       <c r="H58" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K58" s="1">
         <v>52</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K59" s="1">
         <v>53</v>
@@ -2391,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="H60" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K60" s="1">
         <v>54</v>
@@ -2418,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K61" s="1">
         <v>55</v>
@@ -2445,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K62" s="1">
         <v>56</v>
@@ -2472,7 +2472,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K63" s="1">
         <v>57</v>
@@ -2499,7 +2499,7 @@
         <v>16</v>
       </c>
       <c r="H64" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K64" s="1">
         <v>58</v>
@@ -2526,7 +2526,7 @@
         <v>17</v>
       </c>
       <c r="H65" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K65" s="1">
         <v>59</v>
@@ -2553,7 +2553,7 @@
         <v>18</v>
       </c>
       <c r="H66" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K66" s="1">
         <v>60</v>
@@ -2580,7 +2580,7 @@
         <v>19</v>
       </c>
       <c r="H67" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K67" s="1">
         <v>61</v>
@@ -2607,7 +2607,7 @@
         <v>20</v>
       </c>
       <c r="H68" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K68" s="1">
         <v>62</v>
@@ -2634,7 +2634,7 @@
         <v>21</v>
       </c>
       <c r="H69" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K69" s="1">
         <v>63</v>
@@ -2661,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="H70" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K70" s="1">
         <v>64</v>
@@ -2688,7 +2688,7 @@
         <v>23</v>
       </c>
       <c r="H71" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K71" s="1">
         <v>65</v>
@@ -2715,7 +2715,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K72" s="1">
         <v>66</v>
@@ -2742,7 +2742,7 @@
         <v>25</v>
       </c>
       <c r="H73" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K73" s="1">
         <v>67</v>
@@ -2769,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="H74" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K74" s="1">
         <v>68</v>
